--- a/StructureDefinition-profile-MolecularSequence.xlsx
+++ b/StructureDefinition-profile-MolecularSequence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7440872-06:00</t>
+    <t>2026-02-09T22:05:43.2249234-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,137 @@
     <t>MolecularSequence.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:formatted</t>
+  </si>
+  <si>
+    <t>formatted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.formatted|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.formatted from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Sequence that was observed as file content. Can be an actual file contents, or referenced by a URL to an external system.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.formatted` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:coordinateSystem</t>
+  </si>
+  <si>
+    <t>coordinateSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.coordinateSystem|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.coordinateSystem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>These are different ways of identifying nucleotides or amino acids within a sequence. Different databases and file types may use different systems. For detail definitions, see https://loinc.org/92822-6/ for more detail.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.coordinateSystem` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:ordinalPosition</t>
+  </si>
+  <si>
+    <t>ordinalPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.ordinalPosition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.ordinalPosition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the sequence should be considered when putting multiple 'relative' elements together.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.ordinalPosition` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:sequenceRange</t>
+  </si>
+  <si>
+    <t>sequenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.sequenceRange|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.sequenceRange from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the nucleotide range in the composed sequence when multiple 'relative' elements are used together.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.sequenceRange` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.focus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MolecularSequence.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MolecularSequence.focus` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MolecularSequence.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +551,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -607,10 +714,26 @@
     <t>MolecularSequence.referenceSeq.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.extension:genomeAssembly</t>
+  </si>
+  <si>
+    <t>genomeAssembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.genomeAssembly|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.startingSequence.genomeAssembly from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The genome assembly used for starting sequence, e.g. GRCh38.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.startingSequence.genomeAssembly` is will have a context of MolecularSequence.referenceSeq based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.referenceSeq.modifierExtension</t>
@@ -658,20 +781,13 @@
     <t>MolecularSequence.referenceSeq.chromosome.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>MolecularSequence.referenceSeq.chromosome.extension:chromosome</t>
+  </si>
+  <si>
+    <t>chromosome</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.chromosome|0.0.1-snapshot-3}
@@ -681,6 +797,9 @@
     <t>Cross-version extension for MolecularSequence.relative.startingSequence.chromosome from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MolecularSequence.relative.startingSequence.chromosome` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.chromosome`.</t>
+  </si>
+  <si>
     <t>MolecularSequence.referenceSeq.chromosome.coding</t>
   </si>
   <si>
@@ -800,6 +919,12 @@
     <t>MolecularSequence.referenceSeq.referenceSeqString.extension</t>
   </si>
   <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequence</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.sequence|0.0.1-snapshot-3}
 </t>
   </si>
@@ -810,77 +935,107 @@
     <t>The reference sequence that represents the starting sequence.</t>
   </si>
   <si>
-    <t>A starting sequence may be represented in one of three ways:
-  1.  CodeableConcept, using NCBI, LRG or other appropriate code systems
-  1.  a simple string of IUPAC codes
-  1.  a reference to another MolecularSequence resource.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Element `MolecularSequence.relative.startingSequence.sequence[x]` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.referenceSeqString`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceCanonical</t>
+  </si>
+  <si>
+    <t>sequenceCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceReference</t>
+  </si>
+  <si>
+    <t>sequenceReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.strand</t>
+  </si>
+  <si>
+    <t>watson | crick</t>
+  </si>
+  <si>
+    <t>An absolute reference to a strand. The Watson strand is the strand whose 5'-end is on the short arm of the chromosome, and the Crick strand as the one whose 5'-end is on the long arm.</t>
+  </si>
+  <si>
+    <t>Type for strand.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/strand-type|4.0.1</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.windowStart</t>
+  </si>
+  <si>
+    <t>Start position of the window on the  reference sequence</t>
+  </si>
+  <si>
+    <t>Start position of the window on the reference sequence. If the coordinate system is either 0-based or 1-based, then start position is inclusive.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.windowEnd</t>
+  </si>
+  <si>
+    <t>End position of the window on the reference sequence</t>
+  </si>
+  <si>
+    <t>End position of the window on the reference sequence. If the coordinate system is 0-based then end is exclusive and does not include the last position. If the coordinate system is 1-base, then end is inclusive and includes the last position.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.variant</t>
+  </si>
+  <si>
+    <t>Variant in sequence</t>
+  </si>
+  <si>
+    <t>The definition of variant here originates from Sequence ontology ([variant_of](http://www.sequenceontology.org/browser/current_svn/term/variant_of)). This element can represent amino acid or nucleic sequence change(including insertion,deletion,SNP,etc.)  It can represent some complex mutation or segment variation with the assist of CIGAR string.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.variant.id</t>
+  </si>
+  <si>
+    <t>MolecularSequence.variant.extension</t>
+  </si>
+  <si>
+    <t>MolecularSequence.variant.extension:start</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.edit.start|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.strand</t>
-  </si>
-  <si>
-    <t>watson | crick</t>
-  </si>
-  <si>
-    <t>An absolute reference to a strand. The Watson strand is the strand whose 5'-end is on the short arm of the chromosome, and the Crick strand as the one whose 5'-end is on the long arm.</t>
-  </si>
-  <si>
-    <t>Type for strand.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/strand-type|4.0.1</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.windowStart</t>
-  </si>
-  <si>
-    <t>Start position of the window on the  reference sequence</t>
-  </si>
-  <si>
-    <t>Start position of the window on the reference sequence. If the coordinate system is either 0-based or 1-based, then start position is inclusive.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.windowEnd</t>
-  </si>
-  <si>
-    <t>End position of the window on the reference sequence</t>
-  </si>
-  <si>
-    <t>End position of the window on the reference sequence. If the coordinate system is 0-based then end is exclusive and does not include the last position. If the coordinate system is 1-base, then end is inclusive and includes the last position.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.variant</t>
-  </si>
-  <si>
-    <t>Variant in sequence</t>
-  </si>
-  <si>
-    <t>The definition of variant here originates from Sequence ontology ([variant_of](http://www.sequenceontology.org/browser/current_svn/term/variant_of)). This element can represent amino acid or nucleic sequence change(including insertion,deletion,SNP,etc.)  It can represent some complex mutation or segment variation with the assist of CIGAR string.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.variant.id</t>
-  </si>
-  <si>
-    <t>MolecularSequence.variant.extension</t>
+    <t>Cross-version extension for MolecularSequence.relative.edit.start from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Start position of the edit on the starting sequence. If the coordinate system is either 0-based or 1-based, then start position is inclusive.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.edit.start` is will have a context of MolecularSequence.variant based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.variant.modifierExtension</t>
@@ -966,6 +1121,12 @@
   </si>
   <si>
     <t>MolecularSequence.quality.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MolecularSequence.quality.modifierExtension</t>
@@ -1724,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL111"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,9 +1894,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.23046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.75" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1743,7 +1904,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2649,11 +2810,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2668,17 +2829,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2715,16 +2874,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2745,7 +2902,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2753,11 +2910,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2770,26 +2929,24 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2837,7 +2994,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2846,7 +3003,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
@@ -2855,26 +3012,28 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2883,21 +3042,21 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2945,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2954,13 +3113,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2968,12 +3127,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2991,18 +3152,20 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3027,13 +3190,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -3051,19 +3214,19 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -3074,18 +3237,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3097,18 +3262,20 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3157,19 +3324,19 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
@@ -3180,12 +3347,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3194,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3203,18 +3372,20 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3263,19 +3434,19 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3286,42 +3457,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3369,33 +3544,33 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3406,7 +3581,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3418,16 +3593,18 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3475,13 +3652,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -3490,7 +3667,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3498,10 +3675,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3524,13 +3701,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3557,13 +3734,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3581,7 +3758,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3604,10 +3781,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3615,7 +3792,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3630,13 +3807,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3687,10 +3864,10 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3710,10 +3887,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3736,13 +3913,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3793,7 +3970,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3805,7 +3982,7 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -3816,10 +3993,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3839,16 +4016,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3899,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3911,32 +4088,32 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3945,20 +4122,18 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4007,69 +4182,65 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4117,33 +4288,33 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4166,13 +4337,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4199,13 +4370,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4223,7 +4394,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4246,10 +4417,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4269,16 +4440,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4329,7 +4500,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4341,21 +4512,21 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4363,10 +4534,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4378,13 +4549,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4423,45 +4594,45 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4472,7 +4643,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4484,13 +4655,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4529,19 +4700,17 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4564,12 +4733,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4578,7 +4749,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4587,23 +4758,21 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4651,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4660,59 +4829,59 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4761,33 +4930,33 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4810,13 +4979,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4843,13 +5012,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4867,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4890,10 +5059,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4913,16 +5082,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4949,13 +5118,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4973,7 +5142,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4985,21 +5154,21 @@
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5010,7 +5179,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5019,16 +5188,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5055,43 +5224,43 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -5102,12 +5271,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5125,18 +5296,20 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5185,19 +5358,19 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -5208,10 +5381,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5222,7 +5395,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5234,16 +5407,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5291,13 +5468,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -5309,15 +5486,15 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5337,19 +5514,23 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5397,7 +5578,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5409,21 +5590,21 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5431,10 +5612,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5443,16 +5624,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5491,29 +5672,31 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5524,10 +5707,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5547,20 +5730,18 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5585,13 +5766,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5609,19 +5790,19 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5632,10 +5813,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5655,16 +5836,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5688,16 +5869,16 @@
         <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5715,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5727,7 +5908,7 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5738,10 +5919,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5764,13 +5945,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5797,13 +5978,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5821,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5844,10 +6025,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5870,13 +6051,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5927,7 +6108,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5950,10 +6131,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5973,16 +6154,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6033,7 +6214,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6045,7 +6226,7 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6056,10 +6237,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6079,16 +6260,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6127,19 +6308,17 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6151,7 +6330,7 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6162,12 +6341,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6188,15 +6369,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6245,44 +6428,46 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6294,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6353,7 +6538,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6362,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>135</v>
@@ -6371,51 +6556,51 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6463,7 +6648,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6472,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>135</v>
@@ -6481,15 +6666,15 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6509,16 +6694,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6542,7 +6727,7 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>75</v>
@@ -6569,7 +6754,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6581,7 +6766,7 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6592,10 +6777,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6618,13 +6803,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6651,13 +6836,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6675,7 +6860,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6698,10 +6883,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6724,13 +6909,13 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6781,7 +6966,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6804,10 +6989,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6830,13 +7015,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6887,7 +7072,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6910,10 +7095,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6924,7 +7109,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6936,13 +7121,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6993,13 +7178,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7016,10 +7201,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7039,16 +7224,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7099,7 +7284,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7111,21 +7296,21 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7136,7 +7321,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7145,16 +7330,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7193,31 +7378,29 @@
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7228,12 +7411,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7242,7 +7427,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7251,18 +7436,20 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7311,7 +7498,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7320,10 +7507,10 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7334,42 +7521,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7417,44 +7608,44 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7463,20 +7654,18 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7525,69 +7714,65 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7635,33 +7820,33 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7669,7 +7854,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -7684,13 +7869,13 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7717,13 +7902,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7741,10 +7926,10 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>84</v>
@@ -7764,10 +7949,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7790,13 +7975,13 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7823,13 +8008,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>315</v>
+        <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -7847,7 +8032,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7870,10 +8055,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7896,13 +8081,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7953,7 +8138,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7976,10 +8161,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8002,13 +8187,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8059,7 +8244,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8082,10 +8267,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8108,13 +8293,13 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8165,7 +8350,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8188,10 +8373,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8202,7 +8387,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8214,13 +8399,13 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8247,13 +8432,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8271,13 +8456,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8294,10 +8479,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8317,16 +8502,16 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8377,7 +8562,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8389,32 +8574,32 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8423,18 +8608,20 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8483,65 +8670,69 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
       </c>
@@ -8589,33 +8780,33 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8623,7 +8814,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>84</v>
@@ -8638,13 +8829,13 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>331</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8671,13 +8862,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8695,10 +8886,10 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>84</v>
@@ -8718,10 +8909,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8744,13 +8935,13 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8777,13 +8968,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8801,7 +8992,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8824,10 +9015,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8850,13 +9041,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8907,7 +9098,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8930,10 +9121,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8956,13 +9147,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9013,7 +9204,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9036,10 +9227,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9062,13 +9253,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>331</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9119,7 +9310,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9142,10 +9333,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9168,13 +9359,13 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9201,13 +9392,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -9225,7 +9416,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9248,10 +9439,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9271,16 +9462,16 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9331,7 +9522,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>186</v>
+        <v>382</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9343,32 +9534,32 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9377,20 +9568,18 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>383</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>131</v>
+        <v>387</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -9439,69 +9628,65 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>383</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -9549,33 +9734,33 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>195</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9586,7 +9771,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9598,13 +9783,13 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9655,13 +9840,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9678,10 +9863,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9692,7 +9877,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9704,13 +9889,13 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9761,13 +9946,13 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
@@ -9784,10 +9969,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9798,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9810,13 +9995,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9867,13 +10052,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -9890,10 +10075,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9904,7 +10089,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -9916,13 +10101,13 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9973,13 +10158,13 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
@@ -9996,10 +10181,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10010,7 +10195,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10022,13 +10207,13 @@
         <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10079,13 +10264,13 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
@@ -10102,10 +10287,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10116,7 +10301,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
@@ -10128,13 +10313,13 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10185,13 +10370,13 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
@@ -10208,10 +10393,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10222,7 +10407,7 @@
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10231,16 +10416,16 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>381</v>
+        <v>218</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10291,44 +10476,44 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10337,18 +10522,20 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -10397,37 +10584,37 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10440,22 +10627,26 @@
         <v>75</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>386</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -10503,7 +10694,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10515,21 +10706,21 @@
         <v>75</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10540,7 +10731,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10549,16 +10740,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>185</v>
+        <v>415</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10609,37 +10800,37 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10655,20 +10846,18 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -10717,7 +10906,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10729,25 +10918,25 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -10760,26 +10949,22 @@
         <v>75</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
       </c>
@@ -10827,7 +11012,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -10839,21 +11024,21 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10861,10 +11046,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -10876,13 +11061,13 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10909,13 +11094,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -10933,13 +11118,13 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>75</v>
@@ -10956,10 +11141,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10970,7 +11155,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -10982,13 +11167,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>383</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11039,13 +11224,13 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
@@ -11062,10 +11247,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11076,7 +11261,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11088,13 +11273,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11145,13 +11330,13 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
@@ -11168,10 +11353,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11182,7 +11367,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -11194,13 +11379,13 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11251,13 +11436,13 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
@@ -11274,10 +11459,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11300,13 +11485,13 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11357,7 +11542,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11380,10 +11565,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11394,7 +11579,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>75</v>
@@ -11406,13 +11591,13 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11463,13 +11648,13 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>75</v>
@@ -11486,10 +11671,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11500,7 +11685,7 @@
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -11509,16 +11694,16 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11569,37 +11754,37 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -11615,18 +11800,20 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
@@ -11675,7 +11862,7 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>413</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -11687,53 +11874,57 @@
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>75</v>
       </c>
@@ -11781,44 +11972,44 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -11827,20 +12018,18 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>75</v>
@@ -11865,13 +12054,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -11889,69 +12078,65 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>190</v>
+        <v>443</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>193</v>
+        <v>449</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>75</v>
       </c>
@@ -11999,33 +12184,33 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12048,13 +12233,13 @@
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12081,13 +12266,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -12105,7 +12290,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -12128,10 +12313,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12154,13 +12339,13 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>425</v>
+        <v>216</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12211,7 +12396,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -12234,10 +12419,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12260,13 +12445,13 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12317,7 +12502,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -12340,10 +12525,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12366,13 +12551,13 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12423,7 +12608,7 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -12446,10 +12631,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12460,7 +12645,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -12469,16 +12654,16 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12529,37 +12714,37 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -12575,20 +12760,18 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>131</v>
+        <v>466</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>75</v>
@@ -12637,7 +12820,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>190</v>
+        <v>465</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -12649,57 +12832,53 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>75</v>
       </c>
@@ -12747,44 +12926,44 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -12793,18 +12972,20 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>75</v>
@@ -12853,65 +13034,69 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>437</v>
+        <v>222</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>75</v>
       </c>
@@ -12959,33 +13144,33 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>440</v>
+        <v>233</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13008,13 +13193,13 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13041,13 +13226,13 @@
         <v>75</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>75</v>
+        <v>474</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>75</v>
+        <v>475</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>75</v>
@@ -13065,7 +13250,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -13088,10 +13273,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13111,16 +13296,16 @@
         <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>183</v>
+        <v>477</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>184</v>
+        <v>478</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>185</v>
+        <v>479</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13171,7 +13356,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -13183,32 +13368,32 @@
         <v>75</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>75</v>
@@ -13217,20 +13402,18 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>131</v>
+        <v>481</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>75</v>
@@ -13279,69 +13462,65 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>75</v>
       </c>
@@ -13389,33 +13568,33 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13435,16 +13614,16 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>451</v>
+        <v>218</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13495,7 +13674,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>449</v>
+        <v>219</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -13507,32 +13686,32 @@
         <v>75</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
@@ -13541,18 +13720,20 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>75</v>
@@ -13601,24 +13782,988 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>452</v>
+        <v>222</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ111" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL111" t="s" s="2">
+      <c r="AK113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MolecularSequence.xlsx
+++ b/StructureDefinition-profile-MolecularSequence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2249234-06:00</t>
+    <t>2026-02-17T14:42:26.8577082-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,68 +453,31 @@
     <t>Sequence that was observed as file content. Can be an actual file contents, or referenced by a URL to an external system.</t>
   </si>
   <si>
-    <t>Element `MolecularSequence.formatted` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+    <t>Element `MolecularSequence.formatted` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>MolecularSequence.extension:coordinateSystem</t>
-  </si>
-  <si>
-    <t>coordinateSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.coordinateSystem|0.0.1-snapshot-3}
+    <t>MolecularSequence.extension:relative</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MolecularSequence.relative.coordinateSystem from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>These are different ways of identifying nucleotides or amino acids within a sequence. Different databases and file types may use different systems. For detail definitions, see https://loinc.org/92822-6/ for more detail.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.coordinateSystem` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.extension:ordinalPosition</t>
-  </si>
-  <si>
-    <t>ordinalPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.ordinalPosition|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.ordinalPosition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the sequence should be considered when putting multiple 'relative' elements together.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.ordinalPosition` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.extension:sequenceRange</t>
-  </si>
-  <si>
-    <t>sequenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.sequenceRange|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.sequenceRange from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the nucleotide range in the composed sequence when multiple 'relative' elements are used together.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.sequenceRange` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+    <t>Cross-version extension for MolecularSequence.relative from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A sequence defined relative to another sequence.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative` has is mapped to FHIR R4 element `MolecularSequence.referenceSeq`, but has no comparisons.
+Element `MolecularSequence.relative` has is mapped to FHIR R4 element `MolecularSequence.variant`, but has no comparisons.</t>
   </si>
   <si>
     <t>MolecularSequence.extension:focus</t>
@@ -534,7 +497,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MolecularSequence.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MolecularSequence.focus` is will have a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+Element `MolecularSequence.focus` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.modifierExtension</t>
@@ -714,26 +677,13 @@
     <t>MolecularSequence.referenceSeq.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.extension:genomeAssembly</t>
-  </si>
-  <si>
-    <t>genomeAssembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.genomeAssembly|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.startingSequence.genomeAssembly from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The genome assembly used for starting sequence, e.g. GRCh38.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.startingSequence.genomeAssembly` is will have a context of MolecularSequence.referenceSeq based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.referenceSeq.modifierExtension</t>
@@ -775,77 +725,6 @@
     <t>http://hl7.org/fhir/ValueSet/chromosome-human|4.0.1</t>
   </si>
   <si>
-    <t>MolecularSequence.referenceSeq.chromosome.id</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.chromosome.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.chromosome.extension:chromosome</t>
-  </si>
-  <si>
-    <t>chromosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.chromosome|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.startingSequence.chromosome from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.startingSequence.chromosome` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.chromosome`.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.chromosome.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.chromosome.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>MolecularSequence.referenceSeq.genomeBuild</t>
   </si>
   <si>
@@ -907,70 +786,6 @@
     <t>A string like "ACGT".</t>
   </si>
   <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.extension</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequence</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.sequence|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.startingSequence.sequence[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The reference sequence that represents the starting sequence.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.startingSequence.sequence[x]` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.referenceSeqString`.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceCanonical</t>
-  </si>
-  <si>
-    <t>sequenceCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceReference</t>
-  </si>
-  <si>
-    <t>sequenceReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.referenceSeqString.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>MolecularSequence.referenceSeq.strand</t>
   </si>
   <si>
@@ -1017,25 +832,6 @@
   </si>
   <si>
     <t>MolecularSequence.variant.extension</t>
-  </si>
-  <si>
-    <t>MolecularSequence.variant.extension:start</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.edit.start|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.relative.edit.start from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Start position of the edit on the starting sequence. If the coordinate system is either 0-based or 1-based, then start position is inclusive.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative.edit.start` is will have a context of MolecularSequence.variant based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.variant.modifierExtension</t>
@@ -1121,12 +917,6 @@
   </si>
   <si>
     <t>MolecularSequence.quality.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MolecularSequence.quality.modifierExtension</t>
@@ -1885,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL120"/>
+  <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1894,9 +1684,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.23046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="50.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1904,7 +1694,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1922,7 +1712,7 @@
     <col min="26" max="26" width="58.33984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.12109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1930,7 +1720,7 @@
     <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="41.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="20.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2814,7 +2604,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3030,10 +2820,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3143,7 +2933,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3223,7 +3013,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>135</v>
@@ -3240,43 +3030,43 @@
         <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3324,7 +3114,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3333,7 +3123,7 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>135</v>
@@ -3342,19 +3132,17 @@
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3372,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>163</v>
@@ -3383,10 +3171,10 @@
       <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3434,7 +3222,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3446,10 +3234,10 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3457,33 +3245,33 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>169</v>
@@ -3491,12 +3279,8 @@
       <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3520,13 +3304,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3544,25 +3328,25 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -3578,10 +3362,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3602,9 +3386,7 @@
         <v>177</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3655,10 +3437,10 @@
         <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -3667,7 +3449,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3675,10 +3457,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3701,13 +3483,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3734,13 +3516,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3758,7 +3540,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3781,10 +3563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3792,7 +3574,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3807,13 +3589,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3864,10 +3646,10 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3887,10 +3669,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3913,13 +3695,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3970,7 +3752,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3993,10 +3775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4019,13 +3801,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4076,7 +3858,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4099,10 +3881,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4125,13 +3907,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4182,7 +3964,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4205,10 +3987,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4231,13 +4013,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4288,19 +4070,19 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
@@ -4311,10 +4093,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4334,16 +4116,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4394,7 +4176,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4406,32 +4188,32 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4440,18 +4222,20 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4500,65 +4284,69 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4606,33 +4394,33 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4643,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4652,16 +4440,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4688,41 +4476,43 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -4733,14 +4523,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4758,10 +4546,10 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>226</v>
@@ -4769,9 +4557,7 @@
       <c r="M27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4820,19 +4606,19 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
@@ -4843,46 +4629,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4906,13 +4688,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4930,33 +4712,33 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4979,13 +4761,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5012,13 +4794,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -5036,7 +4818,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5059,10 +4841,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5082,16 +4864,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5142,7 +4924,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5154,13 +4936,13 @@
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -5179,7 +4961,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5188,16 +4970,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5236,31 +5018,31 @@
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -5271,14 +5053,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C32" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5296,20 +5076,18 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5334,13 +5112,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5358,19 +5136,19 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -5381,10 +5159,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5395,7 +5173,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5407,7 +5185,7 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>251</v>
@@ -5415,12 +5193,8 @@
       <c r="M33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5468,13 +5242,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -5486,15 +5260,15 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5517,20 +5291,16 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5578,7 +5348,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5596,15 +5366,15 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5615,7 +5385,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5627,13 +5397,13 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5684,13 +5454,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5707,10 +5477,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5730,16 +5500,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5766,13 +5536,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5790,7 +5560,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5802,32 +5572,32 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5836,18 +5606,20 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5872,13 +5644,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5896,65 +5668,69 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -6002,33 +5778,33 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6051,13 +5827,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6108,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6131,10 +5907,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6154,16 +5930,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6214,7 +5990,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6226,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6237,10 +6013,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6251,7 +6027,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6260,16 +6036,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6308,29 +6084,31 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6341,14 +6119,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6366,20 +6142,18 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6428,19 +6202,19 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6451,14 +6225,12 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6476,20 +6248,18 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6538,19 +6308,19 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6561,14 +6331,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6586,20 +6354,18 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6648,19 +6414,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6671,10 +6437,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6694,16 +6460,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6727,7 +6493,7 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>75</v>
@@ -6754,7 +6520,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6766,7 +6532,7 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6777,10 +6543,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6791,7 +6557,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6569,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6836,13 +6602,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6860,13 +6626,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6883,10 +6649,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6906,16 +6672,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6966,7 +6732,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6978,32 +6744,32 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7012,18 +6778,20 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7072,37 +6840,37 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7115,22 +6883,26 @@
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7178,7 +6950,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7190,21 +6962,21 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7212,7 +6984,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7224,16 +6996,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7260,13 +7032,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7284,10 +7056,10 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>84</v>
@@ -7296,21 +7068,21 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7321,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7330,16 +7102,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7366,41 +7138,43 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7411,14 +7185,12 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7436,20 +7208,18 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7498,19 +7268,19 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7521,46 +7291,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7608,33 +7374,33 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7657,13 +7423,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7714,7 +7480,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7737,10 +7503,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7763,13 +7529,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7796,13 +7562,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7820,7 +7586,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7843,10 +7609,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7869,13 +7635,13 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7926,7 +7692,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7949,10 +7715,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7975,13 +7741,13 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8032,7 +7798,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8055,10 +7821,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8081,13 +7847,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8138,7 +7904,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8161,10 +7927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8187,13 +7953,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8244,7 +8010,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8267,10 +8033,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8293,13 +8059,13 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8350,7 +8116,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8373,10 +8139,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8387,7 +8153,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8399,13 +8165,13 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8456,13 +8222,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8479,10 +8245,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8502,16 +8268,16 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8562,7 +8328,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8574,32 +8340,32 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8608,20 +8374,18 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8670,69 +8434,65 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
       </c>
@@ -8780,33 +8540,33 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8814,7 +8574,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>84</v>
@@ -8826,16 +8586,16 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8862,13 +8622,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8886,10 +8646,10 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>358</v>
+        <v>207</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>84</v>
@@ -8898,32 +8658,32 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8932,18 +8692,20 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8968,13 +8730,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8992,65 +8754,69 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>363</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -9098,33 +8864,33 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>217</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9135,7 +8901,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9147,13 +8913,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9204,13 +8970,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -9227,10 +8993,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9241,7 +9007,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9253,13 +9019,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9310,13 +9076,13 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
@@ -9333,10 +9099,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9347,7 +9113,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9359,13 +9125,13 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9392,13 +9158,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -9416,13 +9182,13 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -9439,10 +9205,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9453,7 +9219,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9465,13 +9231,13 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>383</v>
+        <v>175</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9522,13 +9288,13 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
@@ -9545,10 +9311,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9559,7 +9325,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9571,13 +9337,13 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9628,13 +9394,13 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
@@ -9651,10 +9417,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9665,7 +9431,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9677,13 +9443,13 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9734,13 +9500,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -9757,10 +9523,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9771,7 +9537,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9783,13 +9549,13 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9840,13 +9606,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9863,10 +9629,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9889,13 +9655,13 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>383</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9946,7 +9712,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9969,10 +9735,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9983,7 +9749,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9995,13 +9761,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10052,13 +9818,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -10075,10 +9841,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10098,16 +9864,16 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>403</v>
+        <v>206</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10158,7 +9924,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10170,32 +9936,32 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10204,18 +9970,20 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10264,65 +10032,69 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>408</v>
+        <v>215</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10370,33 +10142,33 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10404,7 +10176,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -10416,16 +10188,16 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>217</v>
+        <v>376</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10452,13 +10224,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -10476,10 +10248,10 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>84</v>
@@ -10488,32 +10260,32 @@
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10522,20 +10294,18 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>75</v>
@@ -10584,69 +10354,65 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -10694,33 +10460,33 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>233</v>
+        <v>383</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10731,7 +10497,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10743,13 +10509,13 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10800,13 +10566,13 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>75</v>
@@ -10823,10 +10589,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10837,7 +10603,7 @@
         <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
@@ -10849,13 +10615,13 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10906,13 +10672,13 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>75</v>
@@ -10929,10 +10695,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10943,7 +10709,7 @@
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -10955,13 +10721,13 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11012,13 +10778,13 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
@@ -11035,10 +10801,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11061,13 +10827,13 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11118,7 +10884,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -11141,10 +10907,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11167,13 +10933,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11224,7 +10990,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -11247,10 +11013,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11261,7 +11027,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11270,16 +11036,16 @@
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>429</v>
+        <v>205</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>430</v>
+        <v>206</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11330,37 +11096,37 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>428</v>
+        <v>207</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11376,18 +11142,20 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>432</v>
+        <v>210</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>75</v>
@@ -11436,7 +11204,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>431</v>
+        <v>212</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11448,53 +11216,57 @@
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>435</v>
+        <v>215</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
       </c>
@@ -11542,33 +11314,33 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11579,7 +11351,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>75</v>
@@ -11591,13 +11363,13 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11624,13 +11396,13 @@
         <v>75</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>75</v>
@@ -11648,13 +11420,13 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>75</v>
@@ -11671,10 +11443,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11694,16 +11466,16 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>216</v>
+        <v>409</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>217</v>
+        <v>410</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11754,7 +11526,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>219</v>
+        <v>408</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -11766,32 +11538,32 @@
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -11800,20 +11572,18 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
@@ -11862,69 +11632,65 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>412</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
       </c>
@@ -11972,33 +11738,33 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12006,7 +11772,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>84</v>
@@ -12018,16 +11784,16 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>444</v>
+        <v>205</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>445</v>
+        <v>206</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12054,13 +11820,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>446</v>
+        <v>75</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -12078,10 +11844,10 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>84</v>
@@ -12090,32 +11856,32 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -12124,18 +11890,20 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -12184,65 +11952,69 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>75</v>
       </c>
@@ -12290,33 +12062,33 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12339,13 +12111,13 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12396,7 +12168,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -12419,10 +12191,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12445,13 +12217,13 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12502,7 +12274,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -12525,10 +12297,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12551,13 +12323,13 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12608,7 +12380,7 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -12631,10 +12403,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12645,7 +12417,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -12654,16 +12426,16 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>463</v>
+        <v>205</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12714,37 +12486,37 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>462</v>
+        <v>207</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -12760,18 +12532,20 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L102" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>75</v>
@@ -12820,7 +12594,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>465</v>
+        <v>212</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -12832,53 +12606,57 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L103" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>75</v>
       </c>
@@ -12926,44 +12704,44 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>220</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -12972,20 +12750,18 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>75</v>
@@ -13034,69 +12810,65 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>75</v>
       </c>
@@ -13144,1626 +12916,24 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>233</v>
+        <v>436</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL120" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MolecularSequence.xlsx
+++ b/StructureDefinition-profile-MolecularSequence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8577082-06:00</t>
+    <t>2026-02-20T11:59:20.8924204-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MolecularSequence|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MolecularSequence</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>formatted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.formatted|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.formatted}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>relative</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -586,6 +586,130 @@
     <t>The patient whose sequencing results are described by this resource.</t>
   </si>
   <si>
+    <t>MolecularSequence.patient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MolecularSequence.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MolecularSequence.subject` has is mapped to FHIR R4 element `MolecularSequence.patient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>MolecularSequence.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>MolecularSequence.specimen</t>
   </si>
   <si>
@@ -658,22 +782,6 @@
     <t>MolecularSequence.referenceSeq.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MolecularSequence.referenceSeq.extension</t>
   </si>
   <si>
@@ -681,9 +789,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MolecularSequence.referenceSeq.modifierExtension</t>
@@ -1675,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL105"/>
+  <dimension ref="A1:AL112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1694,7 +1799,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.28125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1712,7 +1817,7 @@
     <col min="26" max="26" width="58.33984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.12109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3586,7 +3691,7 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>183</v>
@@ -3646,7 +3751,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3658,21 +3763,21 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3683,7 +3788,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3692,16 +3797,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3740,31 +3845,31 @@
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -3775,12 +3880,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3798,18 +3905,20 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3864,13 +3973,13 @@
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -3881,10 +3990,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3907,15 +4016,17 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3964,7 +4075,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3973,7 +4084,7 @@
         <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>96</v>
@@ -3982,15 +4093,15 @@
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4013,15 +4124,17 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4046,13 +4159,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4070,7 +4183,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4082,21 +4195,21 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4116,18 +4229,20 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4176,7 +4291,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4188,32 +4303,32 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4222,19 +4337,19 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4284,69 +4399,65 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4394,33 +4505,33 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4443,13 +4554,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4476,13 +4587,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4500,7 +4611,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4523,10 +4634,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4549,13 +4660,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4606,7 +4717,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4629,10 +4740,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4655,13 +4766,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4688,13 +4799,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4712,7 +4823,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4735,10 +4846,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4761,13 +4872,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4794,32 +4905,32 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4830,7 +4941,7 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -4841,10 +4952,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4864,16 +4975,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4924,7 +5035,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4936,32 +5047,32 @@
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4970,18 +5081,20 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5030,65 +5143,69 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5112,13 +5229,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5136,33 +5253,33 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5185,13 +5302,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5218,13 +5335,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5242,7 +5359,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5265,10 +5382,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5291,13 +5408,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5348,7 +5465,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5371,10 +5488,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5385,7 +5502,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5397,13 +5514,13 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5430,13 +5547,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5454,13 +5571,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5477,10 +5594,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5500,16 +5617,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5536,13 +5653,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5560,7 +5677,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5572,32 +5689,32 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5606,20 +5723,18 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5668,69 +5783,65 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5778,33 +5889,33 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5827,13 +5938,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5860,13 +5971,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5884,7 +5995,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5907,10 +6018,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5936,10 +6047,10 @@
         <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5990,7 +6101,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6013,10 +6124,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6039,13 +6150,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6096,7 +6207,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6119,10 +6230,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6133,7 +6244,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6145,13 +6256,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6202,13 +6313,13 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -6225,10 +6336,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6248,16 +6359,16 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6308,7 +6419,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6320,32 +6431,32 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6354,18 +6465,20 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6414,65 +6527,69 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6520,33 +6637,33 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6557,7 +6674,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6569,13 +6686,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6626,13 +6743,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6649,10 +6766,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6672,16 +6789,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6732,7 +6849,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6744,32 +6861,32 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6778,20 +6895,18 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6840,69 +6955,65 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6950,33 +7061,33 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6984,7 +7095,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -6999,13 +7110,13 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7032,13 +7143,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7056,10 +7167,10 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>84</v>
@@ -7079,10 +7190,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7105,13 +7216,13 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7138,13 +7249,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7162,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7185,10 +7296,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7211,13 +7322,13 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7268,7 +7379,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7291,10 +7402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7305,7 +7416,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7317,13 +7428,13 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7374,13 +7485,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -7397,10 +7508,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7420,16 +7531,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7480,7 +7591,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7492,32 +7603,32 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7526,18 +7637,20 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7562,13 +7675,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7586,65 +7699,69 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7692,33 +7809,33 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7726,7 +7843,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -7741,13 +7858,13 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7774,13 +7891,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -7798,10 +7915,10 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>84</v>
@@ -7821,10 +7938,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7847,13 +7964,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7880,13 +7997,13 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -7904,7 +8021,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7927,10 +8044,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7953,13 +8070,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8010,7 +8127,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8033,10 +8150,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8059,13 +8176,13 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8116,7 +8233,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8139,10 +8256,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8165,13 +8282,13 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8222,7 +8339,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8245,10 +8362,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8271,13 +8388,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8304,13 +8421,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -8328,7 +8445,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8351,10 +8468,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8377,13 +8494,13 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8434,7 +8551,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8457,10 +8574,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8483,13 +8600,13 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8540,7 +8657,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8563,10 +8680,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8586,16 +8703,16 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8646,7 +8763,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8658,32 +8775,32 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8692,20 +8809,18 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8754,69 +8869,65 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>215</v>
+        <v>361</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8864,33 +8975,33 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8901,7 +9012,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -8913,13 +9024,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8970,13 +9081,13 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
@@ -8993,10 +9104,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9007,7 +9118,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9019,13 +9130,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9076,13 +9187,13 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
@@ -9099,10 +9210,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9113,7 +9224,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9125,13 +9236,13 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9182,13 +9293,13 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -9205,10 +9316,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9219,7 +9330,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9231,13 +9342,13 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9288,13 +9399,13 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
@@ -9311,10 +9422,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9325,7 +9436,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9334,16 +9445,16 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9394,37 +9505,37 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9440,18 +9551,20 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>361</v>
+        <v>244</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9500,7 +9613,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9512,25 +9625,25 @@
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9543,22 +9656,26 @@
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9606,7 +9723,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9618,21 +9735,21 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9643,7 +9760,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9658,10 +9775,10 @@
         <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9712,13 +9829,13 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
@@ -9735,10 +9852,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9761,13 +9878,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9818,7 +9935,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9841,10 +9958,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9855,7 +9972,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -9864,16 +9981,16 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9924,37 +10041,37 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -9970,20 +10087,18 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10032,7 +10147,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>212</v>
+        <v>387</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10044,25 +10159,25 @@
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10075,26 +10190,22 @@
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10142,7 +10253,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10154,21 +10265,21 @@
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10176,10 +10287,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10191,13 +10302,13 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10224,13 +10335,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -10248,13 +10359,13 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
@@ -10271,10 +10382,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10285,7 +10396,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10297,13 +10408,13 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10354,13 +10465,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -10377,10 +10488,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10403,13 +10514,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10460,7 +10571,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10483,10 +10594,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10497,7 +10608,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10509,13 +10620,13 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10566,13 +10677,13 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>75</v>
@@ -10589,10 +10700,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10612,16 +10723,16 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>390</v>
+        <v>185</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10672,7 +10783,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10684,32 +10795,32 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -10718,18 +10829,20 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -10778,37 +10891,37 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -10821,22 +10934,26 @@
         <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>395</v>
+        <v>248</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -10884,7 +11001,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -10896,21 +11013,21 @@
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10918,10 +11035,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -10933,13 +11050,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10966,13 +11083,13 @@
         <v>75</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>75</v>
@@ -10990,13 +11107,13 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
@@ -11013,10 +11130,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11036,16 +11153,16 @@
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>206</v>
+        <v>415</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11096,7 +11213,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11108,32 +11225,32 @@
         <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -11142,20 +11259,18 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>210</v>
+        <v>417</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>75</v>
@@ -11204,69 +11319,65 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>75</v>
       </c>
@@ -11314,33 +11425,33 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11363,13 +11474,13 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11396,13 +11507,13 @@
         <v>75</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>407</v>
+        <v>75</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>75</v>
@@ -11420,7 +11531,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11443,10 +11554,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11469,13 +11580,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11526,7 +11637,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -11549,10 +11660,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11563,7 +11674,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -11575,13 +11686,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11632,13 +11743,13 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>75</v>
@@ -11655,10 +11766,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11669,7 +11780,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -11681,13 +11792,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11738,13 +11849,13 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
@@ -11761,10 +11872,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11787,13 +11898,13 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11844,7 +11955,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -11862,15 +11973,15 @@
         <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11896,10 +12007,10 @@
         <v>129</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>159</v>
@@ -11952,7 +12063,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -11970,19 +12081,19 @@
         <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12004,10 +12115,10 @@
         <v>129</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>159</v>
@@ -12062,7 +12173,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -12085,10 +12196,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12111,13 +12222,13 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12144,13 +12255,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -12168,7 +12279,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -12191,10 +12302,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12217,13 +12328,13 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12274,7 +12385,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -12297,10 +12408,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12323,13 +12434,13 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12380,7 +12491,7 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -12403,10 +12514,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12426,16 +12537,16 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>205</v>
+        <v>449</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>206</v>
+        <v>450</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12486,7 +12597,7 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>207</v>
+        <v>448</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -12498,32 +12609,32 @@
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
@@ -12535,17 +12646,15 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>75</v>
@@ -12594,37 +12703,37 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -12637,26 +12746,24 @@
         <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O103" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>75</v>
       </c>
@@ -12704,7 +12811,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -12722,47 +12829,51 @@
         <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>434</v>
+        <v>248</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>75</v>
       </c>
@@ -12810,33 +12921,33 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>433</v>
+        <v>250</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12862,10 +12973,10 @@
         <v>175</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12916,7 +13027,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -12934,6 +13045,754 @@
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MolecularSequence.xlsx
+++ b/StructureDefinition-profile-MolecularSequence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8924204-06:00</t>
+    <t>2026-02-21T13:36:54.2937269-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MolecularSequence</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MolecularSequence|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>formatted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.formatted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.formatted|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -460,44 +460,61 @@
 </t>
   </si>
   <si>
-    <t>MolecularSequence.extension:relative</t>
-  </si>
-  <si>
-    <t>relative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative}
+    <t>MolecularSequence.extension:coordinateSystem</t>
+  </si>
+  <si>
+    <t>coordinateSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.coordinateSystem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MolecularSequence.relative from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A sequence defined relative to another sequence.</t>
-  </si>
-  <si>
-    <t>Element `MolecularSequence.relative` has is mapped to FHIR R4 element `MolecularSequence.referenceSeq`, but has no comparisons.
-Element `MolecularSequence.relative` has is mapped to FHIR R4 element `MolecularSequence.variant`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.extension:focus</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Cross-version extension for MolecularSequence.relative.coordinateSystem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>These are different ways of identifying nucleotides or amino acids within a sequence. Different databases and file types may use different systems. For detail definitions, see https://loinc.org/92822-6/ for more detail.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.coordinateSystem` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:ordinalPosition</t>
+  </si>
+  <si>
+    <t>ordinalPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.ordinalPosition|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MolecularSequence.focus from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MolecularSequence.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MolecularSequence.focus` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+    <t>Cross-version extension for MolecularSequence.relative.ordinalPosition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the sequence should be considered when putting multiple 'relative' elements together.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.ordinalPosition` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.extension:sequenceRange</t>
+  </si>
+  <si>
+    <t>sequenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.sequenceRange|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.sequenceRange from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the nucleotide range in the composed sequence when multiple 'relative' elements are used together.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.sequenceRange` has a context of MolecularSequence based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.modifierExtension</t>
@@ -586,7 +603,76 @@
     <t>The patient whose sequencing results are described by this resource.</t>
   </si>
   <si>
-    <t>MolecularSequence.patient.id</t>
+    <t>MolecularSequence.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for sequencing</t>
+  </si>
+  <si>
+    <t>Specimen used for sequencing.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The method for sequencing</t>
+  </si>
+  <si>
+    <t>The method for sequencing, for example, chip information.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who should be responsible for test result</t>
+  </si>
+  <si>
+    <t>The organization or lab that should be responsible for this result.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>The number of copies of the sequence of interest.  (RNASeq)</t>
+  </si>
+  <si>
+    <t>The number of copies of the sequence of interest. (RNASeq).</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>A sequence used as reference</t>
+  </si>
+  <si>
+    <t>A sequence that is used as a reference to describe variants that are present in a sequence analyzed.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+msq-5:GenomeBuild and chromosome must be both contained if either one of them is contained {(chromosome.empty() and genomeBuild.empty()) or (chromosome.exists() and genomeBuild.exists())}msq-6:Have and only have one of the following elements in referenceSeq : 1. genomeBuild ; 2 referenceSeqId; 3. referenceSeqPointer;  4. referenceSeqString; {(genomeBuild.count()+referenceSeqId.count()+ referenceSeqPointer.count()+ referenceSeqString.count()) = 1}</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -605,190 +691,29 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MolecularSequence.patient.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>MolecularSequence.referenceSeq.extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MolecularSequence.patient.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MolecularSequence.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MolecularSequence.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MolecularSequence.subject` has is mapped to FHIR R4 element `MolecularSequence.patient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>MolecularSequence.referenceSeq.extension:genomeAssembly</t>
+  </si>
+  <si>
+    <t>genomeAssembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.genomeAssembly|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>MolecularSequence.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MolecularSequence.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MolecularSequence.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>MolecularSequence.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for sequencing</t>
-  </si>
-  <si>
-    <t>Specimen used for sequencing.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The method for sequencing</t>
-  </si>
-  <si>
-    <t>The method for sequencing, for example, chip information.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who should be responsible for test result</t>
-  </si>
-  <si>
-    <t>The organization or lab that should be responsible for this result.</t>
-  </si>
-  <si>
-    <t>MolecularSequence.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>The number of copies of the sequence of interest.  (RNASeq)</t>
-  </si>
-  <si>
-    <t>The number of copies of the sequence of interest. (RNASeq).</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>A sequence used as reference</t>
-  </si>
-  <si>
-    <t>A sequence that is used as a reference to describe variants that are present in a sequence analyzed.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-msq-5:GenomeBuild and chromosome must be both contained if either one of them is contained {(chromosome.empty() and genomeBuild.empty()) or (chromosome.exists() and genomeBuild.exists())}msq-6:Have and only have one of the following elements in referenceSeq : 1. genomeBuild ; 2 referenceSeqId; 3. referenceSeqPointer;  4. referenceSeqString; {(genomeBuild.count()+referenceSeqId.count()+ referenceSeqPointer.count()+ referenceSeqString.count()) = 1}</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.id</t>
-  </si>
-  <si>
-    <t>MolecularSequence.referenceSeq.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Cross-version extension for MolecularSequence.relative.startingSequence.genomeAssembly from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The genome assembly used for starting sequence, e.g. GRCh38.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.startingSequence.genomeAssembly` has a context of MolecularSequence.referenceSeq based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.referenceSeq.modifierExtension</t>
@@ -830,6 +755,77 @@
     <t>http://hl7.org/fhir/ValueSet/chromosome-human|4.0.1</t>
   </si>
   <si>
+    <t>MolecularSequence.referenceSeq.chromosome.id</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.chromosome.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.chromosome.extension:chromosome</t>
+  </si>
+  <si>
+    <t>chromosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.chromosome|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.startingSequence.chromosome from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.startingSequence.chromosome` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.chromosome` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.chromosome.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.chromosome.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>MolecularSequence.referenceSeq.genomeBuild</t>
   </si>
   <si>
@@ -891,6 +887,70 @@
     <t>A string like "ACGT".</t>
   </si>
   <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequence</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.startingSequence.sequence|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.startingSequence.sequence[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The reference sequence that represents the starting sequence.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.startingSequence.sequence[x]` is mapped to FHIR R4 element `MolecularSequence.referenceSeq.referenceSeqString` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceCanonical</t>
+  </si>
+  <si>
+    <t>sequenceCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.extension:sequenceReference</t>
+  </si>
+  <si>
+    <t>sequenceReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MolecularSequence in FHIR R4</t>
+  </si>
+  <si>
+    <t>MolecularSequence.referenceSeq.referenceSeqString.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>MolecularSequence.referenceSeq.strand</t>
   </si>
   <si>
@@ -937,6 +997,25 @@
   </si>
   <si>
     <t>MolecularSequence.variant.extension</t>
+  </si>
+  <si>
+    <t>MolecularSequence.variant.extension:start</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MolecularSequence.relative.edit.start|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MolecularSequence.relative.edit.start from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Start position of the edit on the starting sequence. If the coordinate system is either 0-based or 1-based, then start position is inclusive.</t>
+  </si>
+  <si>
+    <t>Element `MolecularSequence.relative.edit.start` has a context of MolecularSequence.variant based on following the parent source element upwards and mapping to `MolecularSequence`.</t>
   </si>
   <si>
     <t>MolecularSequence.variant.modifierExtension</t>
@@ -1022,6 +1101,12 @@
   </si>
   <si>
     <t>MolecularSequence.quality.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MolecularSequence.quality.modifierExtension</t>
@@ -1780,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1789,9 +1874,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="68.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.23046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.75" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1799,7 +1884,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.28125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1825,7 +1910,7 @@
     <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="41.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2709,7 +2794,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2925,10 +3010,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3038,7 +3123,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3118,7 +3203,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>135</v>
@@ -3135,43 +3220,43 @@
         <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3219,7 +3304,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3228,7 +3313,7 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>135</v>
@@ -3237,19 +3322,19 @@
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3262,21 +3347,23 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3327,7 +3414,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3339,13 +3426,13 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -3364,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3376,16 +3463,18 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3409,13 +3498,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3439,7 +3528,7 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -3448,7 +3537,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3467,7 +3556,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>84</v>
@@ -3482,13 +3571,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3515,13 +3604,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3542,7 +3631,7 @@
         <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>84</v>
@@ -3562,10 +3651,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3573,7 +3662,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3588,13 +3677,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3645,10 +3734,10 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>84</v>
@@ -3668,10 +3757,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3691,16 +3780,16 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3751,7 +3840,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3763,13 +3852,13 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -3788,7 +3877,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3797,16 +3886,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3845,31 +3934,31 @@
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -3880,14 +3969,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s" s="2">
         <v>192</v>
       </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3905,20 +3992,18 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3967,19 +4052,19 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -4016,17 +4101,15 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>199</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4075,7 +4158,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4084,7 +4167,7 @@
         <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>96</v>
@@ -4093,15 +4176,15 @@
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4124,17 +4207,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4159,13 +4240,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4183,7 +4264,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4201,15 +4282,15 @@
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4232,17 +4313,15 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4291,7 +4370,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4303,21 +4382,21 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4337,20 +4416,18 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4399,7 +4476,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4411,21 +4488,21 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>127</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4436,7 +4513,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4445,16 +4522,16 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4493,31 +4570,29 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -4528,12 +4603,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4551,18 +4628,20 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4611,19 +4690,19 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -4634,42 +4713,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4717,33 +4800,33 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4766,13 +4849,13 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4799,13 +4882,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4823,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4846,10 +4929,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4869,16 +4952,16 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4929,7 +5012,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4941,21 +5024,21 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4966,7 +5049,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4978,13 +5061,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5023,56 +5106,58 @@
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5084,16 +5169,16 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5143,7 +5228,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5161,19 +5246,19 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5186,25 +5271,25 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5253,7 +5338,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5265,13 +5350,13 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -5302,16 +5387,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5335,31 +5424,31 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5377,7 +5466,7 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -5408,7 +5497,7 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>259</v>
@@ -5547,7 +5636,7 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>264</v>
@@ -5620,7 +5709,7 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>267</v>
@@ -5653,7 +5742,7 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>269</v>
@@ -5832,7 +5921,7 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>276</v>
@@ -5935,10 +6024,10 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>279</v>
@@ -5971,13 +6060,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5995,7 +6084,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6007,7 +6096,7 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6018,10 +6107,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6032,7 +6121,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6041,16 +6130,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6089,31 +6178,29 @@
         <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6124,12 +6211,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6147,18 +6236,20 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6207,19 +6298,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6230,12 +6321,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6244,7 +6337,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6253,18 +6346,20 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6313,7 +6408,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6322,10 +6417,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6336,12 +6431,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6362,15 +6459,17 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6419,44 +6518,44 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6468,17 +6567,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6500,7 +6597,7 @@
         <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>75</v>
@@ -6527,69 +6624,65 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6613,13 +6706,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6637,33 +6730,33 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6686,13 +6779,13 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6743,7 +6836,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6766,10 +6859,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6792,13 +6885,13 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6849,7 +6942,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6872,10 +6965,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6886,7 +6979,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6898,13 +6991,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6955,13 +7048,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -6978,10 +7071,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7001,16 +7094,16 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7061,7 +7154,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7073,21 +7166,21 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7098,7 +7191,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7107,16 +7200,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7155,31 +7248,29 @@
         <v>75</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7190,12 +7281,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7213,18 +7306,20 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7273,19 +7368,19 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7296,42 +7391,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7379,33 +7478,33 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7416,7 +7515,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7428,13 +7527,13 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7485,13 +7584,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -7508,10 +7607,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7531,16 +7630,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7591,7 +7690,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7603,32 +7702,32 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7637,20 +7736,18 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7699,69 +7796,65 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7809,33 +7902,33 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7843,7 +7936,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -7858,13 +7951,13 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7891,13 +7984,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -7915,10 +8008,10 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>84</v>
@@ -7938,10 +8031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7964,13 +8057,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7997,13 +8090,13 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8021,7 +8114,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8044,10 +8137,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8070,13 +8163,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8127,7 +8220,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8150,10 +8243,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8164,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8176,13 +8269,13 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8233,13 +8326,13 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
@@ -8256,10 +8349,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8279,16 +8372,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8339,7 +8432,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8351,32 +8444,32 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8385,18 +8478,20 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8421,13 +8516,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -8445,65 +8540,69 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8551,33 +8650,33 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8585,7 +8684,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>84</v>
@@ -8600,13 +8699,13 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8633,13 +8732,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -8657,10 +8756,10 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>84</v>
@@ -8680,10 +8779,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8706,13 +8805,13 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8739,13 +8838,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8763,7 +8862,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8786,10 +8885,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8812,13 +8911,13 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8869,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8892,10 +8991,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8918,13 +9017,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8975,7 +9074,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8998,10 +9097,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9024,13 +9123,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9081,7 +9180,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9104,10 +9203,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9130,13 +9229,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9163,13 +9262,13 @@
         <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>75</v>
@@ -9187,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9210,10 +9309,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9236,13 +9335,13 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9293,7 +9392,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9316,10 +9415,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9342,13 +9441,13 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9399,7 +9498,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9422,10 +9521,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9445,16 +9544,16 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9505,7 +9604,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>186</v>
+        <v>383</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9517,32 +9616,32 @@
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9551,20 +9650,18 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9613,69 +9710,65 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9723,33 +9816,33 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9760,7 +9853,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9772,13 +9865,13 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9829,13 +9922,13 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
@@ -9852,10 +9945,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9866,7 +9959,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9878,13 +9971,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9935,13 +10028,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -9958,10 +10051,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9972,7 +10065,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
@@ -9984,13 +10077,13 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10041,13 +10134,13 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
@@ -10064,10 +10157,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10078,7 +10171,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10090,13 +10183,13 @@
         <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10147,13 +10240,13 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
@@ -10170,10 +10263,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10184,7 +10277,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
@@ -10193,16 +10286,16 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>392</v>
+        <v>212</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10253,37 +10346,37 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>390</v>
+        <v>213</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10299,18 +10392,20 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -10359,7 +10454,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>393</v>
+        <v>216</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10371,25 +10466,25 @@
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10402,22 +10497,26 @@
         <v>75</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10465,7 +10564,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>396</v>
+        <v>227</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10477,21 +10576,21 @@
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10502,7 +10601,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
@@ -10514,13 +10613,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10571,13 +10670,13 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
@@ -10594,10 +10693,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10620,13 +10719,13 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10677,7 +10776,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10700,10 +10799,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10714,7 +10813,7 @@
         <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
@@ -10723,16 +10822,16 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>185</v>
+        <v>415</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10783,37 +10882,37 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>186</v>
+        <v>413</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -10829,20 +10928,18 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -10891,7 +10988,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -10903,25 +11000,25 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -10934,26 +11031,22 @@
         <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -11001,7 +11094,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>250</v>
+        <v>419</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -11013,21 +11106,21 @@
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11035,10 +11128,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11050,13 +11143,13 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11083,13 +11176,13 @@
         <v>75</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>75</v>
@@ -11107,13 +11200,13 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
@@ -11130,10 +11223,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11144,7 +11237,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11156,13 +11249,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11213,13 +11306,13 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
@@ -11236,10 +11329,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11262,13 +11355,13 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11319,7 +11412,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11342,10 +11435,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11356,7 +11449,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
@@ -11368,13 +11461,13 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11425,13 +11518,13 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>75</v>
@@ -11448,10 +11541,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11471,16 +11564,16 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11531,7 +11624,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11543,32 +11636,32 @@
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -11577,18 +11670,20 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -11637,37 +11732,37 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -11680,22 +11775,26 @@
         <v>75</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>428</v>
+        <v>225</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -11743,7 +11842,7 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -11755,21 +11854,21 @@
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11777,10 +11876,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -11792,13 +11891,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11825,13 +11924,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -11849,13 +11948,13 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
@@ -11872,10 +11971,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11895,16 +11994,16 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>184</v>
+        <v>443</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>185</v>
+        <v>444</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11955,7 +12054,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>186</v>
+        <v>442</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -11967,32 +12066,32 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -12001,20 +12100,18 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>244</v>
+        <v>446</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -12063,69 +12160,65 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>75</v>
       </c>
@@ -12173,33 +12266,33 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>250</v>
+        <v>447</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12222,13 +12315,13 @@
         <v>85</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12255,13 +12348,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -12279,7 +12372,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -12302,10 +12395,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12328,13 +12421,13 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12385,7 +12478,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -12408,10 +12501,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12422,7 +12515,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -12434,13 +12527,13 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12491,13 +12584,13 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>75</v>
@@ -12514,10 +12607,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12528,7 +12621,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -12540,13 +12633,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12597,13 +12690,13 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
@@ -12620,10 +12713,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12646,13 +12739,13 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12703,7 +12796,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -12721,19 +12814,19 @@
         <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -12755,13 +12848,13 @@
         <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -12811,7 +12904,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -12829,19 +12922,19 @@
         <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -12863,16 +12956,16 @@
         <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>75</v>
@@ -12921,7 +13014,7 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -12944,10 +13037,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12970,13 +13063,13 @@
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13003,13 +13096,13 @@
         <v>75</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>75</v>
@@ -13027,7 +13120,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -13050,10 +13143,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13076,13 +13169,13 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>175</v>
+        <v>471</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13133,7 +13226,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -13156,10 +13249,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13182,13 +13275,13 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13239,7 +13332,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -13262,10 +13355,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13285,16 +13378,16 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>184</v>
+        <v>478</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>185</v>
+        <v>479</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13345,7 +13438,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>186</v>
+        <v>477</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -13357,32 +13450,32 @@
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>75</v>
@@ -13394,17 +13487,15 @@
         <v>75</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>75</v>
@@ -13453,37 +13544,37 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13496,26 +13587,24 @@
         <v>75</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>75</v>
       </c>
@@ -13563,7 +13652,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -13581,47 +13670,51 @@
         <v>75</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>127</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>75</v>
       </c>
@@ -13669,33 +13762,33 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>466</v>
+        <v>227</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13718,13 +13811,13 @@
         <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13775,7 +13868,7 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -13793,6 +13886,754 @@
         <v>75</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>75</v>
       </c>
     </row>
